--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12440" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12439" uniqueCount="1280">
   <si>
     <t>Property</t>
   </si>
@@ -3625,13 +3625,13 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t>許可された払い出し回数</t>
-  </si>
-  <si>
-    <t>最初の払い出しに追加で許可された払い出し回数（リフィル、日本では分割処方であるが制度的に一致しない)を示す整数であり、患者が処方された薬を受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回繰り返し調剤可」であれば、このオーダーで合計4回、120錠が患者に受け渡される。処方者は0回のリフィルが許可されていると示すことで、初回の払い出し以外を認めないことを明示することができる。</t>
-  </si>
-  <si>
-    <t>もし、許可された払い出し回数を表示するのであれば、この数字に1を足すこと。</t>
+    <t>許可されたリフィル回数</t>
+  </si>
+  <si>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+  </si>
+  <si>
+    <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>
@@ -4211,9 +4211,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -2673,7 +2673,7 @@
     <t>HL7v2-0162表をベースにしたJPFHIRでの投与経路コード表を示すURL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/CodeSystem/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/route-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -501,7 +501,7 @@
   <si>
     <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
 処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
-このIDは業務手順によって定められた処方オーダーに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
     <t>これは業務IDであって、リソースに対するIDではない。</t>
@@ -740,10 +740,10 @@
     <t>requestIdentifier</t>
   </si>
   <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+    <t>処方オーダに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -755,7 +755,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -770,11 +770,10 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>JP Coreでは"active"に固定される。
-オーダーの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
+    <t>オーダの現在の状態を示すコード。</t>
+  </si>
+  <si>
+    <t>オーダの現在の状態を示すコード。一般的には active か completed の状態であるだろう。</t>
   </si>
   <si>
     <t>このエレメントはmodifierとされている。StatusとはこのResourceが現在妥当な状態ではないことも示すからである。</t>
@@ -801,13 +800,10 @@
     <t>MedicationRequest.statusReason</t>
   </si>
   <si>
-    <t>現状の理由</t>
-  </si>
-  <si>
     <t>現在のステータスの理由</t>
   </si>
   <si>
-    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダーが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
+    <t>一般的には「保留(suspended)」や「中止(cancelled)」といった例外的状態を示すために持ちいられる。MedicationRequestオーダが発生した理由についてはreasonCodeに記載され、この項目は用いられない。</t>
   </si>
   <si>
     <t>example</t>
@@ -828,20 +824,16 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>JP Coreでは "order" に固定される。
-投薬リクエストの意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
-  </si>
-  <si>
-    <t>処方をオーダーする場合、MedicationRequestのどの段階でオーダーしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
-instance-orderはリクエストあるいはオーダーをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。+    <t>投薬指示の意図</t>
+  </si>
+  <si>
+    <t>投薬指示の意図 が提案(proposal)、計画(plan)、あるいは他の要求によるものかを示す。</t>
+  </si>
+  <si>
+    <t>処方をオーダする場合、MedicationRequestのどの段階でオーダしたのかについて、この項目を指定することが期待される。たとえば、proposalであれば患者、関係者、医師あるいは機器からの提案として作成される。"plan"であれば、医師、患者、関係者そして機器からの提案として生成される。"original-order"は医師にしか作成できない。
+instance-orderはリクエストあるいはオーダをインスタンス化する段階であり、MedicationAdministrationレコードにも使われる。 
 intentはこのresourceが実際に適応される時に変化するため、このエレメントはmodifierとしてラベルされる。</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>The kind of medication order.</t>
@@ -893,10 +885,10 @@
     <t>MedicationRequest.priority</t>
   </si>
   <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>このMedicationRequestオーダーの優先度。他のオーダーと比較して表現される。</t>
+    <t>オーダの優先度</t>
+  </si>
+  <si>
+    <t>このMedicationRequestオーダの優先度。他のオーダと比較して表現される。</t>
   </si>
   <si>
     <t>FHIRでは文字列の大きさが1MBを超えてはならない(SHALL NOT)。</t>
@@ -927,10 +919,10 @@
     <t>要求が禁止された行為であればTrue</t>
   </si>
   <si>
-    <t>このオーダーが実施していけないものであればTrueを表示される</t>
-  </si>
-  <si>
-    <t>もし、doNotPerformに指定がなければ、オーダーは実施してもよいものである。(たとえば、「実施せよ」)</t>
+    <t>このオーダが実施していけないものであればTrueを表示される</t>
+  </si>
+  <si>
+    <t>もし、doNotPerformに指定がなければ、オーダは実施してもよいものである。(たとえば、「実施せよ」)</t>
   </si>
   <si>
     <t>SubstanceAdministration.actionNegationInd</t>
@@ -1018,7 +1010,7 @@
 一般には薬剤が投与される対象となる人（あるいはグループ)を表現するResourceに対するリンク。</t>
   </si>
   <si>
-    <t>処方オーダーの対象は必須項目である。
+    <t>処方オーダの対象は必須項目である。
 二次利用のためにどこに実際の対象がいるのかについての情報は提供されない。特定の対象に対して匿名化することも必要である。</t>
   </si>
   <si>
@@ -1049,7 +1041,7 @@
     <t>encounter/admission/stay のいずれかとして記録された診察</t>
   </si>
   <si>
-    <t>JP Core profileでの使用は規定されていない。
+    <t>JP Coreでの使用は規定されていない。
 この対象となるリソース[x]が作成される間やこの記録が作成される対象のencounterは密接に関連している。</t>
   </si>
   <si>
@@ -1078,7 +1070,7 @@
     <t>薬剤オーダについて補助的情報</t>
   </si>
   <si>
-    <t>薬剤をオーダーするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
+    <t>薬剤をオーダするときに補助的となる追加情報（たとえば、患者の身長や体重））を含む。</t>
   </si>
   <si>
     <t>参照先は実存するFHIR Resourceでなければならず(SHALL)、解決可能(アクセスコントロールや、一時的に利用不可であることなどは許容される)でなければならない(SHALL)。解決の方法はURLから取得可能であるか、Resource型が適応できるかどうか、正規のURLとして絶対的参照を扱うことができるか、ローカルのレジストリ／リポジトリから参照することができるかである。</t>
@@ -1097,10 +1089,10 @@
 </t>
   </si>
   <si>
-    <t>この処方オーダーが最初に記述された日</t>
-  </si>
-  <si>
-    <t>JP Core profileでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
+    <t>この処方オーダが最初に記述された日</t>
+  </si>
+  <si>
+    <t>JP Coreでは必須。処方指示が最初に作成された日時。秒の精度まで記録する。タイムゾーンも付与しなければならない。</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1125,11 +1117,11 @@
 </t>
   </si>
   <si>
-    <t>このオーダーを発行した人・物</t>
-  </si>
-  <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
-このオーダーを発行した責任のある人、組織、機器。</t>
+    <t>このオーダを発行した人・物</t>
+  </si>
+  <si>
+    <t>JP Coreではこのエレメントに対する規定はない。
+このオーダを発行した責任のある人、組織、機器。</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1172,7 +1164,7 @@
     <t>Performerを示さずにこのエレメントが指定された場合は、このエレメントは薬剤の投与／管理が指定の職種でなければならないと言うことを示している。Performerと共に指定された場合は、もし指定されたPerformerが実施できない場合に薬剤投与・管理を行うものについての要件が示されたことを意味する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PractitionerRole_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PractitionerRole_VS</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1188,11 +1180,11 @@
 </t>
   </si>
   <si>
-    <t>投薬オーダーの入力者</t>
-  </si>
-  <si>
-    <t>JP Core profileではこのエレメントに対する規定はない。
-たとえば口答指示や電話でのオーダーにより、他の人の代理で処方を入力した人。</t>
+    <t>投薬オーダの入力者</t>
+  </si>
+  <si>
+    <t>JP Coreではこのエレメントに対する規定はない。
+たとえば口答指示や電話でのオーダにより、他の人の代理で処方を入力した人。</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -1208,7 +1200,7 @@
   </si>
   <si>
     <t>このエレメントに対するJP Coreの規定はない。
-薬剤をオーダーするあるいはしないことを示した理由。</t>
+薬剤をオーダするあるいはしないことを示した理由。</t>
   </si>
   <si>
     <t>このエレメントは病名コードであってもよい。もし、すべての条件を示す記録があって他の詳細な記録が必要であれば、reasonReferenceを使用すること。</t>
@@ -1245,10 +1237,10 @@
     <t>処方箋が書かれた理由について補足するCondition ResourceまたはObservation Resource</t>
   </si>
   <si>
-    <t>薬剤がなぜオーダーされたのかを説明する条件や観察。</t>
-  </si>
-  <si>
-    <t>薬剤オーダーの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
+    <t>薬剤がなぜオーダされたのかを説明する条件や観察。</t>
+  </si>
+  <si>
+    <t>薬剤オーダの理由を示すこれは条件や観察についての参照である。もし、コードだけであればreasonCodeを使用すること。</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1295,10 +1287,10 @@
 </t>
   </si>
   <si>
-    <t>オーダーが実施される根拠</t>
-  </si>
-  <si>
-    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダー。</t>
+    <t>オーダが実施される根拠</t>
+  </si>
+  <si>
+    <t>このMedicationRequestの全部あるいは一部を満たす計画やオーダ。</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -1310,7 +1302,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>このRequestを一部とする複数のオーダーを構成するID</t>
+    <t>このRequestを一部とする複数のオーダを構成するID</t>
   </si>
   <si>
     <t>一人の処方者が同時期に前後して作成した全てのリクエストに共通するIDで、処方や薬品請求のIDを示す。</t>
@@ -1378,7 +1370,7 @@
     <t>他の属性では伝えることができなかったMedicationRequestについての付加的情報。</t>
   </si>
   <si>
-    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザーの行動を強制することはほぼ不可能であるからである。</t>
+    <t>構造化されたアノテーションが内システムでは、作成者や記録時間のない一つのアノテーションで情報を伝達している。このエレメントに情報の修正を要する可能性があるためにナラティブな情報も必要としている。Annotationsには機械処理が可能で修正される（"modifying")情報を伝達することに使うべきではない(SHOULD NOT)。これがSHOULDである理由はユーザの行動を強制することはほぼ不可能であるからである。</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1397,10 +1389,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1419,7 +1408,7 @@
     <t>調剤・払い出しについての承認事項</t>
   </si>
   <si>
-    <t>薬剤オーダー(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダーとの一部としての薬剤の払い出しあるいは提供。この情報はオーダーとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
+    <t>薬剤オーダ(MedicationRequest, Medication Prescription, Medication Orderなどとしても表現される）や薬剤オーダとの一部としての薬剤の払い出しあるいは提供。この情報はオーダとしてかならず伝えられるというわけではないことに注意。薬剤部門で調剤・払い出しを完了するための施設（たとえば病院）やシステムでのサポートに関する設定をしてもよい。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
@@ -1644,7 +1633,7 @@
     <t>許可されたリフィル回数</t>
   </si>
   <si>
-    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダーが「30錠に加えて3回リフィル可」であれば、このオーダーで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
+    <t>リフィル回数を示す整数である。患者が処方された薬を最初の払い出しから追加で受け取ることができる回数である。使用上の注意：この整数には最初の払い出しが含まれない。オーダが「30錠に加えて3回リフィル可」であれば、このオーダで合計で最大4回、120錠が患者に受け渡される。この数字を0とすることで，処方者がリフィルを許可しないということを明示することができる。</t>
   </si>
   <si>
     <t>許可された払い出し回数は，最大でこの数字に1を足したものである。</t>
@@ -1677,7 +1666,7 @@
     <t>供給される製品が使用されるか、あるいは払い出しが想定されている時間を指定する期間。</t>
   </si>
   <si>
-    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダーされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
+    <t>状況によっては、この属性は物理的に供給される量というよりも、想定されている期間に供給される薬剤の量を指定する数量の代わりに使われることもある。たとえば、薬剤が90日間供給される（オーダされた量に基づいて）など。可能であれば、量も示した方がより正確になる。expectedSupplyDurationは外部要因に影響をうけることのある予測値である。</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
@@ -1873,7 +1862,7 @@
     <t>代替品が許可されるかどうかは無視できないので、このエレメントはmodifierとしてラベルされる。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationSubstitutionNotAllowedReason_VS</t>
   </si>
   <si>
     <t>code</t>
@@ -1891,7 +1880,7 @@
     <t>代替品にしなければならなかった、あるいは代替品が認められなかった理由を示す。</t>
   </si>
   <si>
-    <t>代替品の理由を表す一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+    <t>代替品の理由を表す一般的パターンに全てのターミノロジが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
   </si>
   <si>
     <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
@@ -1916,10 +1905,10 @@
 </t>
   </si>
   <si>
-    <t>前回のオーダー/処方</t>
-  </si>
-  <si>
-    <t>関連する先行オーダーや処方を表現するMedicationRequest Resourceへのリンク。</t>
+    <t>前回のオーダ/処方</t>
+  </si>
+  <si>
+    <t>関連する先行オーダや処方を表現するMedicationRequest Resourceへのリンク。</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -1961,7 +1950,7 @@
     <t>ライフサイクルで関心のあるイベントのリスト</t>
   </si>
   <si>
-    <t>このリソースの現在のバージョンをユーザーから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
+    <t>このリソースの現在のバージョンをユーザから見て関係していそうなキーとなる更新や状態遷移と識別される過去のバージョンのこのリソースあるいは調剤請求あるいはEvent ResourceについてのProvenance resourceへの参照。</t>
   </si>
   <si>
     <t>このエレメントには全てのバージョンのMedicationRequestについてのProvenanceが取り込まれているわけではない。「関連する」あるいは重要と思われたものだけである。現在のバージョンのResourceに関連したProvenance resourceを含めてはならない(SHALL NOT)。（もし、Provenanceとして「関連した」変化と思われれば、後の更新の一部として取り込まれる必要があるだろう。それまでは、このバージョンを_revincludeを使ってprovenanceとして指定して直接クエリーを発行することができる。全てのProvenanceがこのRequestについての履歴を対象として持つべきである。）</t>
@@ -2296,7 +2285,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2310,7 +2299,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.55078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5901,10 +5890,10 @@
         <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5930,13 +5919,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -5969,13 +5958,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5986,7 +5975,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6012,13 +6001,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6026,7 +6015,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6047,10 +6036,10 @@
         <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6068,7 +6057,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6083,16 +6072,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6100,7 +6089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6126,13 +6115,13 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6158,13 +6147,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6182,7 +6171,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6200,13 +6189,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6214,7 +6203,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6240,13 +6229,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6275,10 +6264,10 @@
         <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -6296,7 +6285,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6311,16 +6300,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6328,7 +6317,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6351,16 +6340,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6410,7 +6399,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6431,7 +6420,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6442,7 +6431,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6465,13 +6454,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6522,7 +6511,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6543,7 +6532,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6554,7 +6543,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6577,16 +6566,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6612,13 +6601,13 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
@@ -6636,7 +6625,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6651,24 +6640,24 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6691,16 +6680,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6750,7 +6739,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6765,24 +6754,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6805,16 +6794,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6864,7 +6853,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6879,24 +6868,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6919,16 +6908,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6978,7 +6967,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6993,16 +6982,16 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7010,7 +6999,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7033,13 +7022,13 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7090,7 +7079,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7105,24 +7094,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7145,16 +7134,16 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7204,7 +7193,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7219,16 +7208,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7236,7 +7225,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7259,16 +7248,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7318,7 +7307,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7333,16 +7322,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7350,7 +7339,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7376,13 +7365,13 @@
         <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7408,11 +7397,11 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7430,7 +7419,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7445,13 +7434,13 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7462,7 +7451,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7485,16 +7474,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7544,7 +7533,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7565,10 +7554,10 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7576,7 +7565,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7602,13 +7591,13 @@
         <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7634,13 +7623,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7658,7 +7647,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7673,24 +7662,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7713,16 +7702,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7772,7 +7761,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7787,16 +7776,16 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7804,7 +7793,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7827,16 +7816,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7886,7 +7875,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7901,13 +7890,13 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7918,7 +7907,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7944,13 +7933,13 @@
         <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8000,7 +7989,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8021,7 +8010,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -8032,7 +8021,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8055,16 +8044,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8114,7 +8103,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8129,13 +8118,13 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8146,7 +8135,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8172,14 +8161,14 @@
         <v>153</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8228,7 +8217,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8243,13 +8232,13 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8260,7 +8249,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8286,13 +8275,13 @@
         <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8318,13 +8307,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8342,7 +8331,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8363,7 +8352,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8374,7 +8363,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8397,16 +8386,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8456,7 +8445,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8471,13 +8460,13 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8488,7 +8477,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8511,16 +8500,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8570,7 +8559,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8585,13 +8574,13 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8602,7 +8591,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8625,16 +8614,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8684,7 +8673,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8705,7 +8694,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8716,7 +8705,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8739,13 +8728,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8796,7 +8785,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8814,10 +8803,10 @@
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8828,7 +8817,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8854,10 +8843,10 @@
         <v>168</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8940,7 +8929,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9050,10 +9039,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>80</v>
@@ -9075,13 +9064,13 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9164,10 +9153,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>80</v>
@@ -9189,13 +9178,13 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9278,11 +9267,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9304,10 +9293,10 @@
         <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>149</v>
@@ -9362,7 +9351,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9394,7 +9383,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9417,16 +9406,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9476,7 +9465,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9497,7 +9486,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9508,7 +9497,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9620,7 +9609,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9734,11 +9723,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9760,10 +9749,10 @@
         <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>149</v>
@@ -9818,7 +9807,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9850,7 +9839,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9873,16 +9862,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9932,7 +9921,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9944,7 +9933,7 @@
         <v>144</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>80</v>
@@ -9953,18 +9942,18 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9987,16 +9976,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10046,7 +10035,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10067,7 +10056,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10078,7 +10067,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10101,16 +10090,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10160,7 +10149,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10181,7 +10170,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10192,7 +10181,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10218,16 +10207,16 @@
         <v>218</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10276,7 +10265,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10294,10 +10283,10 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10308,7 +10297,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10420,7 +10409,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10534,7 +10523,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10557,16 +10546,16 @@
         <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10616,7 +10605,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10625,7 +10614,7 @@
         <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>100</v>
@@ -10637,18 +10626,18 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10671,23 +10660,23 @@
         <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P74" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q74" t="s" s="2">
         <v>80</v>
@@ -10732,7 +10721,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10741,7 +10730,7 @@
         <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>100</v>
@@ -10753,18 +10742,18 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10787,16 +10776,16 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10846,7 +10835,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10864,21 +10853,21 @@
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10901,16 +10890,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10960,7 +10949,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10972,7 +10961,7 @@
         <v>144</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
@@ -10981,18 +10970,18 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11015,16 +11004,16 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11074,7 +11063,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11092,10 +11081,10 @@
         <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11106,7 +11095,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11218,7 +11207,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11332,7 +11321,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11355,19 +11344,19 @@
         <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -11416,7 +11405,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11437,18 +11426,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11474,20 +11463,20 @@
         <v>108</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>80</v>
@@ -11511,10 +11500,10 @@
         <v>183</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>80</v>
@@ -11532,7 +11521,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11553,18 +11542,18 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11590,21 +11579,21 @@
         <v>168</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>80</v>
@@ -11646,7 +11635,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11667,18 +11656,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11704,21 +11693,21 @@
         <v>102</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>80</v>
@@ -11760,7 +11749,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11769,7 +11758,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -11781,18 +11770,18 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11818,23 +11807,23 @@
         <v>108</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>80</v>
@@ -11876,7 +11865,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11897,18 +11886,18 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11931,16 +11920,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11990,7 +11979,7 @@
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12011,10 +12000,10 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -12022,7 +12011,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12045,13 +12034,13 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12102,7 +12091,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12120,10 +12109,10 @@
         <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -12134,7 +12123,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12246,7 +12235,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12360,11 +12349,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12386,10 +12375,10 @@
         <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>149</v>
@@ -12444,7 +12433,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12476,7 +12465,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12502,13 +12491,13 @@
         <v>189</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12538,7 +12527,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>80</v>
@@ -12556,7 +12545,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>88</v>
@@ -12574,21 +12563,21 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12614,13 +12603,13 @@
         <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12646,13 +12635,13 @@
         <v>80</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12670,7 +12659,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12688,21 +12677,21 @@
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12725,16 +12714,16 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12784,7 +12773,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12799,13 +12788,13 @@
         <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12816,11 +12805,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12839,16 +12828,16 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12898,7 +12887,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12919,7 +12908,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12930,7 +12919,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12953,16 +12942,16 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13012,7 +13001,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13027,13 +13016,13 @@
         <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
